--- a/excel_routes/route_ATZ_JED_threats.xlsx
+++ b/excel_routes/route_ATZ_JED_threats.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6692</v>
+        <v>6660</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7072</v>
+        <v>7024</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-380</v>
+        <v>-364</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -573,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -583,26 +583,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>flyadeal F3-756</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4795</v>
+        <v>6234</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-4086</v>
+        <v>-2596</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -628,26 +628,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-584</t>
+          <t>flyadeal F3-756</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4795</v>
+        <v>4001</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-4086</v>
+        <v>-4829</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -673,26 +673,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-570</t>
+          <t>flyadeal F3-754</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4795</v>
+        <v>4001</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-4086</v>
+        <v>-4829</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -718,26 +718,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-572</t>
+          <t>flyadeal F3-764</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4795</v>
+        <v>4001</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-4086</v>
+        <v>-4829</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -763,26 +763,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>flyadeal F3-762</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4795</v>
+        <v>4001</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-4086</v>
+        <v>-4829</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-578</t>
+          <t>flynas XY-574</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4795</v>
+        <v>4377</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-4086</v>
+        <v>-4453</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>20</v>
@@ -843,7 +843,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -853,17 +853,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>flynas XY-584</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4795</v>
+        <v>4377</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-4086</v>
+        <v>-4453</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>20</v>
@@ -898,26 +898,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>flynas XY-570</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7199</v>
+        <v>4377</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1682</v>
+        <v>-4453</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -943,26 +943,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-584</t>
+          <t>flynas XY-572</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>7199</v>
+        <v>4377</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1682</v>
+        <v>-4453</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -988,26 +988,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-570</t>
+          <t>flynas XY-590</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>7199</v>
+        <v>4377</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1682</v>
+        <v>-4453</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1033,26 +1033,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-572</t>
+          <t>flynas XY-578</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>7199</v>
+        <v>4377</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1682</v>
+        <v>-4453</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1078,26 +1078,26 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>flynas XY-568</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>7199</v>
+        <v>4377</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1682</v>
+        <v>-4453</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1123,26 +1123,26 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-578</t>
+          <t>flynas XY-566</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>7199</v>
+        <v>4754</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-1682</v>
+        <v>-4076</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1158,36 +1158,36 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-453</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>flyadeal F3-778</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>7199</v>
+        <v>4917</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1682</v>
+        <v>-3913</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
@@ -1203,36 +1203,36 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-566</t>
+          <t>flyadeal F3-756</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>7578</v>
+        <v>4001</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1303</v>
+        <v>-4829</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1248,36 +1248,36 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>flyadeal F3-754</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>4795</v>
+        <v>4001</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-4086</v>
+        <v>-4829</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1293,36 +1293,36 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-572</t>
+          <t>flyadeal F3-764</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4795</v>
+        <v>4001</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-4086</v>
+        <v>-4829</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1338,36 +1338,36 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>flyadeal F3-762</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4795</v>
+        <v>4001</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-4086</v>
+        <v>-4829</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1383,27 +1383,27 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>flynas XY-574</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>4795</v>
+        <v>4377</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-4086</v>
+        <v>-4453</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>20</v>
@@ -1438,17 +1438,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>flynas XY-584</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>4795</v>
+        <v>4377</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-4086</v>
+        <v>-4453</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>20</v>
@@ -1483,17 +1483,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-584</t>
+          <t>flynas XY-570</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>4795</v>
+        <v>4377</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-4086</v>
+        <v>-4453</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>20</v>
@@ -1528,17 +1528,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-570</t>
+          <t>flynas XY-572</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>4795</v>
+        <v>4377</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-4086</v>
+        <v>-4453</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>20</v>
@@ -1573,17 +1573,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-572</t>
+          <t>flynas XY-590</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>4795</v>
+        <v>4377</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-4086</v>
+        <v>-4453</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>20</v>
@@ -1618,17 +1618,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>flynas XY-578</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>4795</v>
+        <v>4754</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-4086</v>
+        <v>-4076</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>20</v>
@@ -1663,17 +1663,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-578</t>
+          <t>flynas XY-566</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>4795</v>
+        <v>4754</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-4086</v>
+        <v>-4076</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>20</v>
@@ -1708,17 +1708,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>flyadeal F3-778</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>4795</v>
+        <v>4917</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-4086</v>
+        <v>-3913</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>20</v>
@@ -1743,36 +1743,36 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>flynas XY-568</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>4795</v>
+        <v>6760</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-4086</v>
+        <v>-2070</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1798,26 +1798,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>flyadeal F3-778</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>4795</v>
+        <v>3875</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-4086</v>
+        <v>-4955</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1843,26 +1843,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-572</t>
+          <t>flynas XY-574</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>7199</v>
+        <v>4754</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1682</v>
+        <v>-4076</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1888,26 +1888,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>flynas XY-584</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>7578</v>
+        <v>4754</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1303</v>
+        <v>-4076</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1933,26 +1933,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-584</t>
+          <t>flynas XY-570</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>7578</v>
+        <v>4754</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1303</v>
+        <v>-4076</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1978,26 +1978,26 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-570</t>
+          <t>flynas XY-572</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>7578</v>
+        <v>4754</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1303</v>
+        <v>-4076</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2023,17 +2023,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-778</t>
+          <t>flynas XY-590</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>5465</v>
+        <v>4754</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-3416</v>
+        <v>-4076</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>20</v>
@@ -2058,7 +2058,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2068,17 +2068,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>flynas XY-566</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>4795</v>
+        <v>4754</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-4086</v>
+        <v>-4076</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>20</v>
@@ -2103,7 +2103,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2113,17 +2113,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-566</t>
+          <t>flynas XY-568</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>4795</v>
+        <v>4754</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-4086</v>
+        <v>-4076</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>20</v>
@@ -2148,7 +2148,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2158,26 +2158,26 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>flyadeal F3-756</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>6819</v>
+        <v>6234</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-2062</v>
+        <v>-2596</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>09-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2203,26 +2203,26 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-584</t>
+          <t>flynas XY-568</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>7199</v>
+        <v>4377</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1682</v>
+        <v>-4453</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>09-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2248,17 +2248,17 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-570</t>
+          <t>flynas XY-574</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>7199</v>
+        <v>6760</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-1682</v>
+        <v>-2070</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>40</v>
@@ -2283,7 +2283,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>09-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>7199</v>
+        <v>7137</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-1682</v>
+        <v>-1693</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>40</v>
@@ -2328,7 +2328,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>09-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2338,17 +2338,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-578</t>
+          <t>flynas XY-590</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>7199</v>
+        <v>7137</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-1682</v>
+        <v>-1693</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>40</v>
@@ -2383,26 +2383,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>flyadeal F3-756</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>7199</v>
+        <v>4001</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-1682</v>
+        <v>-4829</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2428,26 +2428,26 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-300</t>
+          <t>flyadeal F3-754</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>8653</v>
+        <v>4001</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-228</v>
+        <v>-4829</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2473,26 +2473,26 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>flyadeal F3-764</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>4162</v>
+        <v>4001</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-4719</v>
+        <v>-4829</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2518,26 +2518,26 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-584</t>
+          <t>flyadeal F3-762</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>4162</v>
+        <v>4001</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-4719</v>
+        <v>-4829</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2563,17 +2563,17 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-570</t>
+          <t>flynas XY-574</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>20</v>
@@ -2598,7 +2598,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2608,17 +2608,17 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-572</t>
+          <t>flynas XY-584</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>20</v>
@@ -2643,7 +2643,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2653,17 +2653,17 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>flynas XY-570</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>20</v>
@@ -2688,7 +2688,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2698,17 +2698,17 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-578</t>
+          <t>flynas XY-572</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>20</v>
@@ -2733,7 +2733,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-566</t>
+          <t>flynas XY-590</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>20</v>
@@ -2778,7 +2778,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -2788,17 +2788,17 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>flynas XY-578</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>20</v>
@@ -2823,7 +2823,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2833,26 +2833,26 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-306</t>
+          <t>flynas XY-566</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>8653</v>
+        <v>4126</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-228</v>
+        <v>-4704</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2878,26 +2878,26 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-330</t>
+          <t>flynas XY-568</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>8653</v>
+        <v>4126</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-228</v>
+        <v>-4704</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2913,36 +2913,36 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>SM-491</t>
+          <t>SM-455</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>Saudia SV-306</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>4162</v>
+        <v>7501</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-4719</v>
+        <v>-1329</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
@@ -2958,36 +2958,36 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>SM-491</t>
+          <t>SM-455</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-584</t>
+          <t>flyadeal F3-764</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>4162</v>
+        <v>4001</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-4719</v>
+        <v>-4829</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
@@ -3003,27 +3003,27 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>SM-491</t>
+          <t>SM-455</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-570</t>
+          <t>flynas XY-574</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>20</v>
@@ -3048,27 +3048,27 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SM-491</t>
+          <t>SM-455</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-572</t>
+          <t>flynas XY-584</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>20</v>
@@ -3093,27 +3093,27 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SM-491</t>
+          <t>SM-455</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>flynas XY-570</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>20</v>
@@ -3138,27 +3138,27 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SM-491</t>
+          <t>SM-455</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-578</t>
+          <t>flynas XY-572</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>20</v>
@@ -3183,27 +3183,27 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SM-491</t>
+          <t>SM-455</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-566</t>
+          <t>flynas XY-578</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>20</v>
@@ -3228,27 +3228,27 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>SM-491</t>
+          <t>SM-455</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>flynas XY-566</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>20</v>
@@ -3273,36 +3273,36 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SM-491</t>
+          <t>SM-455</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-386</t>
+          <t>flynas XY-568</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>8653</v>
+        <v>4126</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-228</v>
+        <v>-4704</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -3328,26 +3328,26 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>Saudia SV-306</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>4162</v>
+        <v>5167</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-4719</v>
+        <v>-3663</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -3373,26 +3373,26 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-584</t>
+          <t>Saudia SV-330</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>4162</v>
+        <v>5167</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-4719</v>
+        <v>-3663</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3418,26 +3418,26 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-570</t>
+          <t>flyadeal F3-756</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>6566</v>
+        <v>6234</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-2315</v>
+        <v>-2596</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3463,26 +3463,26 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-572</t>
+          <t>flyadeal F3-754</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>6566</v>
+        <v>6234</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-2315</v>
+        <v>-2596</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3508,26 +3508,26 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>flyadeal F3-762</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>6566</v>
+        <v>6234</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-2315</v>
+        <v>-2596</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -3553,17 +3553,17 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-578</t>
+          <t>flynas XY-590</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>6566</v>
+        <v>6510</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-2315</v>
+        <v>-2320</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>40</v>
@@ -3588,36 +3588,36 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-566</t>
+          <t>flyadeal F3-778</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>6566</v>
+        <v>3875</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-2315</v>
+        <v>-4955</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
@@ -3633,36 +3633,36 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>flyadeal F3-756</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>6566</v>
+        <v>4001</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-2315</v>
+        <v>-4829</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
@@ -3678,36 +3678,36 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-382</t>
+          <t>flyadeal F3-754</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>8135</v>
+        <v>4001</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-746</v>
+        <v>-4829</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J72" s="3" t="inlineStr">
         <is>
@@ -3723,36 +3723,36 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-388</t>
+          <t>flyadeal F3-764</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>8135</v>
+        <v>4001</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-746</v>
+        <v>-4829</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J73" s="3" t="inlineStr">
         <is>
@@ -3768,36 +3768,36 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-300</t>
+          <t>flyadeal F3-762</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>8135</v>
+        <v>4001</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-746</v>
+        <v>-4829</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J74" s="3" t="inlineStr">
         <is>
@@ -3813,36 +3813,36 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-308</t>
+          <t>flynas XY-574</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>8135</v>
+        <v>4126</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-746</v>
+        <v>-4704</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
@@ -3858,36 +3858,36 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-382</t>
+          <t>flynas XY-584</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>8135</v>
+        <v>4126</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-746</v>
+        <v>-4704</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J76" s="3" t="inlineStr">
         <is>
@@ -3903,36 +3903,36 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-386</t>
+          <t>flynas XY-570</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>8135</v>
+        <v>4126</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-746</v>
+        <v>-4704</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
@@ -3948,36 +3948,36 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-302</t>
+          <t>flynas XY-572</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>8135</v>
+        <v>4126</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>-746</v>
+        <v>-4704</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J78" s="3" t="inlineStr">
         <is>
@@ -3993,27 +3993,27 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>flynas XY-590</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>4162</v>
+        <v>4126</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>-4719</v>
+        <v>-4704</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>20</v>
@@ -4038,36 +4038,36 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-174</t>
+          <t>flynas XY-578</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>4390</v>
+        <v>4126</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-4491</v>
+        <v>-4704</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J80" s="3" t="inlineStr">
         <is>
@@ -4083,36 +4083,36 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-172</t>
+          <t>flynas XY-566</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>4390</v>
+        <v>4126</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-4491</v>
+        <v>-4704</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J81" s="3" t="inlineStr">
         <is>
@@ -4128,36 +4128,36 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-584</t>
+          <t>flynas XY-568</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>6566</v>
+        <v>4126</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-2315</v>
+        <v>-4704</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J82" s="3" t="inlineStr">
         <is>
@@ -4173,36 +4173,36 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-570</t>
+          <t>Saudia SV-304</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>6566</v>
+        <v>5167</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-2315</v>
+        <v>-3663</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J83" s="3" t="inlineStr">
         <is>
@@ -4218,36 +4218,36 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-572</t>
+          <t>Saudia SV-330</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>6566</v>
+        <v>5167</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-2315</v>
+        <v>-3663</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J84" s="3" t="inlineStr">
         <is>
@@ -4263,36 +4263,36 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>Saudia SV-302</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>6566</v>
+        <v>7501</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-2315</v>
+        <v>-1329</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J85" s="3" t="inlineStr">
         <is>
@@ -4308,36 +4308,36 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-578</t>
+          <t>Saudia SV-388</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>6566</v>
+        <v>7501</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>-2315</v>
+        <v>-1329</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J86" s="3" t="inlineStr">
         <is>
@@ -4353,36 +4353,36 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>SM-455</t>
+          <t>SM-491</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-566</t>
+          <t>Saudia SV-306</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>6566</v>
+        <v>7501</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>-2315</v>
+        <v>-1329</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -4408,26 +4408,26 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>Saudia SV-300</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>6566</v>
+        <v>5167</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>-2315</v>
+        <v>-3663</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J88" s="3" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -4453,26 +4453,26 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-388</t>
+          <t>Saudia SV-306</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>8135</v>
+        <v>5167</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>-746</v>
+        <v>-3663</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J89" s="3" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -4498,26 +4498,26 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-300</t>
+          <t>Saudia SV-304</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>8135</v>
+        <v>5167</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>-746</v>
+        <v>-3663</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -4543,17 +4543,17 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-306</t>
+          <t>Saudia SV-308</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>8135</v>
+        <v>7501</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-746</v>
+        <v>-1329</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>46</v>
@@ -4578,7 +4578,7 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -4588,17 +4588,17 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-304</t>
+          <t>Saudia SV-382</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>8135</v>
+        <v>7501</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-746</v>
+        <v>-1329</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>46</v>
@@ -4623,7 +4623,7 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -4633,17 +4633,17 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-330</t>
+          <t>Saudia SV-386</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>8135</v>
+        <v>7501</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>-746</v>
+        <v>-1329</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>46</v>
@@ -4668,7 +4668,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -4678,26 +4678,26 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-574</t>
+          <t>Saudia SV-302</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>4162</v>
+        <v>7501</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>-4719</v>
+        <v>-1329</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J94" s="3" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -4723,26 +4723,26 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-584</t>
+          <t>Saudia SV-388</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>4162</v>
+        <v>7501</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>-4719</v>
+        <v>-1329</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J95" s="3" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -4768,26 +4768,26 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-570</t>
+          <t>Saudia SV-330</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>4162</v>
+        <v>7501</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>-4719</v>
+        <v>-1329</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J96" s="3" t="inlineStr">
         <is>
@@ -4813,26 +4813,26 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-572</t>
+          <t>Nesma Airlines NE-172</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>4162</v>
+        <v>4365</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>-4719</v>
+        <v>-4465</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J97" s="3" t="inlineStr">
         <is>
@@ -4858,26 +4858,26 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-590</t>
+          <t>Saudia SV-386</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>4162</v>
+        <v>5167</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>-4719</v>
+        <v>-3663</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J98" s="3" t="inlineStr">
         <is>
@@ -4903,26 +4903,26 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-578</t>
+          <t>Saudia SV-302</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>4162</v>
+        <v>5167</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-4719</v>
+        <v>-3663</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J99" s="3" t="inlineStr">
         <is>
@@ -4948,26 +4948,26 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-566</t>
+          <t>Saudia SV-388</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>4162</v>
+        <v>5167</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-4719</v>
+        <v>-3663</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J100" s="3" t="inlineStr">
         <is>
@@ -4993,26 +4993,26 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-568</t>
+          <t>Saudia SV-300</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>4162</v>
+        <v>5167</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-4719</v>
+        <v>-3663</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J101" s="3" t="inlineStr">
         <is>
@@ -5038,26 +5038,26 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-172</t>
+          <t>Saudia SV-306</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>4390</v>
+        <v>5167</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-4491</v>
+        <v>-3663</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J102" s="3" t="inlineStr">
         <is>
@@ -5083,26 +5083,26 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-308</t>
+          <t>Saudia SV-304</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>8135</v>
+        <v>5167</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-746</v>
+        <v>-3663</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J103" s="3" t="inlineStr">
         <is>
@@ -5128,26 +5128,26 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-382</t>
+          <t>Saudia SV-330</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>8135</v>
+        <v>5167</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>-746</v>
+        <v>-3663</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
@@ -5173,17 +5173,17 @@
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-386</t>
+          <t>Saudia SV-308</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>8135</v>
+        <v>7501</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>-746</v>
+        <v>-1329</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>46</v>
@@ -5218,17 +5218,17 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-302</t>
+          <t>Saudia SV-382</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>8135</v>
+        <v>7501</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>-746</v>
+        <v>-1329</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>46</v>
@@ -5263,17 +5263,17 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-388</t>
+          <t>EgyptAir MS-643</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>8135</v>
+        <v>7827</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>8881</v>
+        <v>8830</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-746</v>
+        <v>-1003</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>46</v>
@@ -5298,7 +5298,7 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -5308,17 +5308,17 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-300</t>
+          <t>EgyptAir MS-669</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>8135</v>
+        <v>7124</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>8881</v>
+        <v>7513</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-746</v>
+        <v>-389</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>46</v>
@@ -5343,7 +5343,7 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -5353,26 +5353,26 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-178</t>
+          <t>EgyptAir MS-8223</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>4390</v>
+        <v>11803</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>7553</v>
+        <v>9671</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>-3163</v>
+        <v>2132</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J109" s="3" t="inlineStr">
         <is>
@@ -5380,321 +5380,6 @@
         </is>
       </c>
       <c r="K109" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>19-MAR-26</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>SM-455</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-176</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>4390</v>
-      </c>
-      <c r="E110" s="2" t="n">
-        <v>7553</v>
-      </c>
-      <c r="F110" s="2" t="n">
-        <v>-3163</v>
-      </c>
-      <c r="G110" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H110" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>19-MAR-26</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>SM-455</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-170</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>4390</v>
-      </c>
-      <c r="E111" s="2" t="n">
-        <v>7553</v>
-      </c>
-      <c r="F111" s="2" t="n">
-        <v>-3163</v>
-      </c>
-      <c r="G111" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H111" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>19-MAR-26</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>SM-455</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-172</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>4390</v>
-      </c>
-      <c r="E112" s="2" t="n">
-        <v>7553</v>
-      </c>
-      <c r="F112" s="2" t="n">
-        <v>-3163</v>
-      </c>
-      <c r="G112" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H112" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>20-MAR-26</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>SM-491</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-170</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>4390</v>
-      </c>
-      <c r="E113" s="2" t="n">
-        <v>7553</v>
-      </c>
-      <c r="F113" s="2" t="n">
-        <v>-3163</v>
-      </c>
-      <c r="G113" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H113" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>21-MAR-26</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>SM-455</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-669</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>7186</v>
-      </c>
-      <c r="E114" s="2" t="n">
-        <v>7553</v>
-      </c>
-      <c r="F114" s="2" t="n">
-        <v>-367</v>
-      </c>
-      <c r="G114" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H114" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I114" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J114" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>22-MAR-26</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>SM-491</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-778</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>4959</v>
-      </c>
-      <c r="E115" s="2" t="n">
-        <v>7553</v>
-      </c>
-      <c r="F115" s="2" t="n">
-        <v>-2594</v>
-      </c>
-      <c r="G115" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H115" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I115" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J115" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>11-MAY-26</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>SM-455</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-330</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>8135</v>
-      </c>
-      <c r="E116" s="2" t="n">
-        <v>8881</v>
-      </c>
-      <c r="F116" s="2" t="n">
-        <v>-746</v>
-      </c>
-      <c r="G116" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H116" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I116" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J116" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_ATZ_JED_threats.xlsx
+++ b/excel_routes/route_ATZ_JED_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E819C41-7B96-4019-ABA3-B9C47B00D874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98CC478-19BA-4747-B0C4-C6F4A442AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -60,55 +60,142 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>08-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-455</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-450</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
     <t>01-MAR-26</t>
   </si>
   <si>
-    <t>SM-455</t>
+    <t>flyadeal F3-756</t>
+  </si>
+  <si>
+    <t>03-MAR-26</t>
+  </si>
+  <si>
+    <t>flyadeal F3-754</t>
+  </si>
+  <si>
+    <t>flyadeal F3-764</t>
+  </si>
+  <si>
+    <t>flyadeal F3-762</t>
+  </si>
+  <si>
+    <t>flynas XY-574</t>
+  </si>
+  <si>
+    <t>flynas XY-584</t>
+  </si>
+  <si>
+    <t>flynas XY-570</t>
+  </si>
+  <si>
+    <t>flynas XY-572</t>
+  </si>
+  <si>
+    <t>flynas XY-590</t>
+  </si>
+  <si>
+    <t>flynas XY-578</t>
+  </si>
+  <si>
+    <t>flynas XY-568</t>
+  </si>
+  <si>
+    <t>flynas XY-566</t>
+  </si>
+  <si>
+    <t>04-MAR-26</t>
+  </si>
+  <si>
+    <t>SM-453</t>
   </si>
   <si>
     <t>flyadeal F3-778</t>
   </si>
   <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
-    <t>02-MAR-26</t>
-  </si>
-  <si>
-    <t>flynas XY-574</t>
-  </si>
-  <si>
-    <t>flynas XY-570</t>
-  </si>
-  <si>
-    <t>flynas XY-590</t>
-  </si>
-  <si>
-    <t>flynas XY-568</t>
-  </si>
-  <si>
-    <t>flynas XY-584</t>
-  </si>
-  <si>
-    <t>flynas XY-572</t>
-  </si>
-  <si>
-    <t>flynas XY-578</t>
-  </si>
-  <si>
-    <t>flynas XY-566</t>
-  </si>
-  <si>
-    <t>03-MAR-26</t>
-  </si>
-  <si>
-    <t>04-MAR-26</t>
-  </si>
-  <si>
-    <t>SM-453</t>
+    <t>06-MAR-26</t>
+  </si>
+  <si>
+    <t>SM-491</t>
+  </si>
+  <si>
+    <t>08-MAR-26</t>
+  </si>
+  <si>
+    <t>09-MAR-26</t>
+  </si>
+  <si>
+    <t>10-MAR-26</t>
+  </si>
+  <si>
+    <t>Saudia SV-306</t>
+  </si>
+  <si>
+    <t>12-MAR-26</t>
+  </si>
+  <si>
+    <t>Saudia SV-330</t>
+  </si>
+  <si>
+    <t>13-MAR-26</t>
+  </si>
+  <si>
+    <t>Saudia SV-304</t>
+  </si>
+  <si>
+    <t>Saudia SV-302</t>
+  </si>
+  <si>
+    <t>Saudia SV-388</t>
+  </si>
+  <si>
+    <t>15-MAR-26</t>
+  </si>
+  <si>
+    <t>Saudia SV-300</t>
+  </si>
+  <si>
+    <t>Saudia SV-308</t>
+  </si>
+  <si>
+    <t>Saudia SV-382</t>
+  </si>
+  <si>
+    <t>Saudia SV-386</t>
+  </si>
+  <si>
+    <t>17-MAR-26</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-172</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-643</t>
+  </si>
+  <si>
+    <t>21-MAR-26</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-669</t>
+  </si>
+  <si>
+    <t>28-MAR-26</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-8223</t>
   </si>
 </sst>
 </file>
@@ -496,7 +583,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,22 +647,22 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>4136</v>
+        <v>6660</v>
       </c>
       <c r="E2" s="2">
-        <v>8825</v>
+        <v>7024</v>
       </c>
       <c r="F2" s="2">
-        <v>-4689</v>
+        <v>-364</v>
       </c>
       <c r="G2" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2">
-        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
@@ -595,22 +682,22 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>6776</v>
+        <v>6234</v>
       </c>
       <c r="E3" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F3" s="2">
-        <v>-2049</v>
+        <v>-2596</v>
       </c>
       <c r="G3" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
         <v>30</v>
       </c>
       <c r="I3" s="2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -621,31 +708,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>6776</v>
+        <v>4001</v>
       </c>
       <c r="E4" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F4" s="2">
-        <v>-2049</v>
+        <v>-4829</v>
       </c>
       <c r="G4" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>14</v>
@@ -656,7 +743,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -665,22 +752,22 @@
         <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>6776</v>
+        <v>4001</v>
       </c>
       <c r="E5" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F5" s="2">
-        <v>-2049</v>
+        <v>-4829</v>
       </c>
       <c r="G5" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2">
         <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
@@ -691,7 +778,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -700,22 +787,22 @@
         <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>6776</v>
+        <v>4001</v>
       </c>
       <c r="E6" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F6" s="2">
-        <v>-2049</v>
+        <v>-4829</v>
       </c>
       <c r="G6" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2">
         <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
@@ -726,7 +813,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -735,22 +822,22 @@
         <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>7153</v>
+        <v>4001</v>
       </c>
       <c r="E7" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F7" s="2">
-        <v>-1672</v>
+        <v>-4829</v>
       </c>
       <c r="G7" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -761,7 +848,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -770,22 +857,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>7153</v>
+        <v>4377</v>
       </c>
       <c r="E8" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F8" s="2">
-        <v>-1672</v>
+        <v>-4453</v>
       </c>
       <c r="G8" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2">
         <v>30</v>
       </c>
       <c r="I8" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
@@ -796,7 +883,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -805,22 +892,22 @@
         <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>7153</v>
+        <v>4377</v>
       </c>
       <c r="E9" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F9" s="2">
-        <v>-1672</v>
+        <v>-4453</v>
       </c>
       <c r="G9" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2">
         <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
@@ -831,7 +918,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -840,22 +927,22 @@
         <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>7153</v>
+        <v>4377</v>
       </c>
       <c r="E10" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F10" s="2">
-        <v>-1672</v>
+        <v>-4453</v>
       </c>
       <c r="G10" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>14</v>
@@ -866,22 +953,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" s="2">
-        <v>4387</v>
+        <v>4377</v>
       </c>
       <c r="E11" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F11" s="2">
-        <v>-4438</v>
+        <v>-4453</v>
       </c>
       <c r="G11" s="2">
         <v>20</v>
@@ -901,22 +988,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>4387</v>
+        <v>4377</v>
       </c>
       <c r="E12" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F12" s="2">
-        <v>-4438</v>
+        <v>-4453</v>
       </c>
       <c r="G12" s="2">
         <v>20</v>
@@ -936,22 +1023,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>4387</v>
+        <v>4377</v>
       </c>
       <c r="E13" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F13" s="2">
-        <v>-4438</v>
+        <v>-4453</v>
       </c>
       <c r="G13" s="2">
         <v>20</v>
@@ -971,22 +1058,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>4387</v>
+        <v>4377</v>
       </c>
       <c r="E14" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F14" s="2">
-        <v>-4438</v>
+        <v>-4453</v>
       </c>
       <c r="G14" s="2">
         <v>20</v>
@@ -1006,22 +1093,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
-        <v>4387</v>
+        <v>4754</v>
       </c>
       <c r="E15" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F15" s="2">
-        <v>-4438</v>
+        <v>-4076</v>
       </c>
       <c r="G15" s="2">
         <v>20</v>
@@ -1041,22 +1128,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
-        <v>4387</v>
+        <v>4917</v>
       </c>
       <c r="E16" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F16" s="2">
-        <v>-4438</v>
+        <v>-3913</v>
       </c>
       <c r="G16" s="2">
         <v>20</v>
@@ -1076,31 +1163,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2">
-        <v>4387</v>
+        <v>4001</v>
       </c>
       <c r="E17" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F17" s="2">
-        <v>-4438</v>
+        <v>-4829</v>
       </c>
       <c r="G17" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2">
         <v>30</v>
       </c>
       <c r="I17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>14</v>
@@ -1111,31 +1198,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
-        <v>4764</v>
+        <v>4001</v>
       </c>
       <c r="E18" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F18" s="2">
-        <v>-4061</v>
+        <v>-4829</v>
       </c>
       <c r="G18" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2">
         <v>30</v>
       </c>
       <c r="I18" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>14</v>
@@ -1146,31 +1233,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
-        <v>4764</v>
+        <v>4001</v>
       </c>
       <c r="E19" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F19" s="2">
-        <v>-4061</v>
+        <v>-4829</v>
       </c>
       <c r="G19" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2">
         <v>30</v>
       </c>
       <c r="I19" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>14</v>
@@ -1181,31 +1268,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2">
-        <v>4764</v>
+        <v>4001</v>
       </c>
       <c r="E20" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F20" s="2">
-        <v>-4061</v>
+        <v>-4829</v>
       </c>
       <c r="G20" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H20" s="2">
         <v>30</v>
       </c>
       <c r="I20" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>14</v>
@@ -1216,22 +1303,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2">
-        <v>4764</v>
+        <v>4377</v>
       </c>
       <c r="E21" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F21" s="2">
-        <v>-4061</v>
+        <v>-4453</v>
       </c>
       <c r="G21" s="2">
         <v>20</v>
@@ -1251,31 +1338,31 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2">
-        <v>6776</v>
+        <v>4377</v>
       </c>
       <c r="E22" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F22" s="2">
-        <v>-2049</v>
+        <v>-4453</v>
       </c>
       <c r="G22" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2">
         <v>30</v>
       </c>
       <c r="I22" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>14</v>
@@ -1286,31 +1373,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2">
-        <v>7153</v>
+        <v>4377</v>
       </c>
       <c r="E23" s="2">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F23" s="2">
-        <v>-1672</v>
+        <v>-4453</v>
       </c>
       <c r="G23" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2">
         <v>30</v>
       </c>
       <c r="I23" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>14</v>
@@ -1321,36 +1408,3011 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-4453</v>
+      </c>
+      <c r="G24" s="2">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D25" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E25" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-4453</v>
+      </c>
+      <c r="G25" s="2">
+        <v>20</v>
+      </c>
+      <c r="H25" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D26" s="2">
+        <v>4754</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-4076</v>
+      </c>
+      <c r="G26" s="2">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4754</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-4076</v>
+      </c>
+      <c r="G27" s="2">
+        <v>20</v>
+      </c>
+      <c r="H27" s="2">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4917</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-3913</v>
+      </c>
+      <c r="G28" s="2">
+        <v>20</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6760</v>
+      </c>
+      <c r="E29" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-2070</v>
+      </c>
+      <c r="G29" s="2">
+        <v>40</v>
+      </c>
+      <c r="H29" s="2">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3875</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-4955</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <v>30</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4754</v>
+      </c>
+      <c r="E31" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-4076</v>
+      </c>
+      <c r="G31" s="2">
+        <v>20</v>
+      </c>
+      <c r="H31" s="2">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4754</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-4076</v>
+      </c>
+      <c r="G32" s="2">
+        <v>20</v>
+      </c>
+      <c r="H32" s="2">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4754</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-4076</v>
+      </c>
+      <c r="G33" s="2">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4754</v>
+      </c>
+      <c r="E34" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-4076</v>
+      </c>
+      <c r="G34" s="2">
+        <v>20</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4754</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-4076</v>
+      </c>
+      <c r="G35" s="2">
+        <v>20</v>
+      </c>
+      <c r="H35" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4754</v>
+      </c>
+      <c r="E36" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-4076</v>
+      </c>
+      <c r="G36" s="2">
+        <v>20</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4754</v>
+      </c>
+      <c r="E37" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-4076</v>
+      </c>
+      <c r="G37" s="2">
+        <v>20</v>
+      </c>
+      <c r="H37" s="2">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2">
+        <v>10</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6234</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-2596</v>
+      </c>
+      <c r="G38" s="2">
+        <v>30</v>
+      </c>
+      <c r="H38" s="2">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E39" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-4453</v>
+      </c>
+      <c r="G39" s="2">
+        <v>20</v>
+      </c>
+      <c r="H39" s="2">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2">
+        <v>10</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6760</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-2070</v>
+      </c>
+      <c r="G40" s="2">
+        <v>40</v>
+      </c>
+      <c r="H40" s="2">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2">
+        <v>7137</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-1693</v>
+      </c>
+      <c r="G41" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" s="2">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2">
+        <v>7137</v>
+      </c>
+      <c r="E42" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-1693</v>
+      </c>
+      <c r="G42" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" s="2">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E43" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-4829</v>
+      </c>
+      <c r="G43" s="2">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2">
+        <v>15</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="2">
-        <v>7153</v>
-      </c>
-      <c r="E24" s="2">
-        <v>8825</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-1672</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="D44" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-4829</v>
+      </c>
+      <c r="G44" s="2">
+        <v>15</v>
+      </c>
+      <c r="H44" s="2">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2">
+        <v>15</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E45" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-4829</v>
+      </c>
+      <c r="G45" s="2">
+        <v>15</v>
+      </c>
+      <c r="H45" s="2">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2">
+        <v>15</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-4829</v>
+      </c>
+      <c r="G46" s="2">
+        <v>15</v>
+      </c>
+      <c r="H46" s="2">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2">
+        <v>15</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G47" s="2">
+        <v>20</v>
+      </c>
+      <c r="H47" s="2">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E48" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F48" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G48" s="2">
+        <v>20</v>
+      </c>
+      <c r="H48" s="2">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E49" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G49" s="2">
+        <v>20</v>
+      </c>
+      <c r="H49" s="2">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E50" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G50" s="2">
+        <v>20</v>
+      </c>
+      <c r="H50" s="2">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2">
+        <v>10</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E51" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F51" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G51" s="2">
+        <v>20</v>
+      </c>
+      <c r="H51" s="2">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2">
+        <v>10</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F52" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G52" s="2">
+        <v>20</v>
+      </c>
+      <c r="H52" s="2">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E53" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F53" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G53" s="2">
+        <v>20</v>
+      </c>
+      <c r="H53" s="2">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2">
+        <v>10</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E54" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F54" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G54" s="2">
+        <v>20</v>
+      </c>
+      <c r="H54" s="2">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2">
+        <v>10</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F55" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G55" s="2">
+        <v>46</v>
+      </c>
+      <c r="H55" s="2">
+        <v>30</v>
+      </c>
+      <c r="I55" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E56" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F56" s="2">
+        <v>-4829</v>
+      </c>
+      <c r="G56" s="2">
+        <v>15</v>
+      </c>
+      <c r="H56" s="2">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2">
+        <v>15</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F57" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G57" s="2">
+        <v>20</v>
+      </c>
+      <c r="H57" s="2">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2">
+        <v>10</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E58" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F58" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G58" s="2">
+        <v>20</v>
+      </c>
+      <c r="H58" s="2">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E59" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F59" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G59" s="2">
+        <v>20</v>
+      </c>
+      <c r="H59" s="2">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2">
+        <v>10</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E60" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F60" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G60" s="2">
+        <v>20</v>
+      </c>
+      <c r="H60" s="2">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2">
+        <v>10</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E61" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F61" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G61" s="2">
+        <v>20</v>
+      </c>
+      <c r="H61" s="2">
+        <v>30</v>
+      </c>
+      <c r="I61" s="2">
+        <v>10</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E62" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F62" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G62" s="2">
+        <v>20</v>
+      </c>
+      <c r="H62" s="2">
+        <v>30</v>
+      </c>
+      <c r="I62" s="2">
+        <v>10</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E63" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F63" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G63" s="2">
+        <v>20</v>
+      </c>
+      <c r="H63" s="2">
+        <v>30</v>
+      </c>
+      <c r="I63" s="2">
+        <v>10</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E64" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F64" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G64" s="2">
+        <v>23</v>
+      </c>
+      <c r="H64" s="2">
+        <v>30</v>
+      </c>
+      <c r="I64" s="2">
+        <v>7</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="2">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="D65" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E65" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F65" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G65" s="2">
+        <v>23</v>
+      </c>
+      <c r="H65" s="2">
+        <v>30</v>
+      </c>
+      <c r="I65" s="2">
+        <v>7</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2">
+        <v>6234</v>
+      </c>
+      <c r="E66" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F66" s="2">
+        <v>-2596</v>
+      </c>
+      <c r="G66" s="2">
+        <v>30</v>
+      </c>
+      <c r="H66" s="2">
+        <v>30</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6234</v>
+      </c>
+      <c r="E67" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F67" s="2">
+        <v>-2596</v>
+      </c>
+      <c r="G67" s="2">
+        <v>30</v>
+      </c>
+      <c r="H67" s="2">
+        <v>30</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="2">
+        <v>6234</v>
+      </c>
+      <c r="E68" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F68" s="2">
+        <v>-2596</v>
+      </c>
+      <c r="G68" s="2">
+        <v>30</v>
+      </c>
+      <c r="H68" s="2">
+        <v>30</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="2">
+        <v>6510</v>
+      </c>
+      <c r="E69" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F69" s="2">
+        <v>-2320</v>
+      </c>
+      <c r="G69" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" s="2">
+        <v>30</v>
+      </c>
+      <c r="I69" s="2">
         <v>-10</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3875</v>
+      </c>
+      <c r="E70" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F70" s="2">
+        <v>-4955</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>30</v>
+      </c>
+      <c r="I70" s="2">
+        <v>30</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E71" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F71" s="2">
+        <v>-4829</v>
+      </c>
+      <c r="G71" s="2">
+        <v>15</v>
+      </c>
+      <c r="H71" s="2">
+        <v>30</v>
+      </c>
+      <c r="I71" s="2">
+        <v>15</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E72" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F72" s="2">
+        <v>-4829</v>
+      </c>
+      <c r="G72" s="2">
+        <v>15</v>
+      </c>
+      <c r="H72" s="2">
+        <v>30</v>
+      </c>
+      <c r="I72" s="2">
+        <v>15</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E73" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F73" s="2">
+        <v>-4829</v>
+      </c>
+      <c r="G73" s="2">
+        <v>15</v>
+      </c>
+      <c r="H73" s="2">
+        <v>30</v>
+      </c>
+      <c r="I73" s="2">
+        <v>15</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E74" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F74" s="2">
+        <v>-4829</v>
+      </c>
+      <c r="G74" s="2">
+        <v>15</v>
+      </c>
+      <c r="H74" s="2">
+        <v>30</v>
+      </c>
+      <c r="I74" s="2">
+        <v>15</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E75" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F75" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G75" s="2">
+        <v>20</v>
+      </c>
+      <c r="H75" s="2">
+        <v>30</v>
+      </c>
+      <c r="I75" s="2">
+        <v>10</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E76" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F76" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G76" s="2">
+        <v>20</v>
+      </c>
+      <c r="H76" s="2">
+        <v>30</v>
+      </c>
+      <c r="I76" s="2">
+        <v>10</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E77" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F77" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G77" s="2">
+        <v>20</v>
+      </c>
+      <c r="H77" s="2">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2">
+        <v>10</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E78" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F78" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G78" s="2">
+        <v>20</v>
+      </c>
+      <c r="H78" s="2">
+        <v>30</v>
+      </c>
+      <c r="I78" s="2">
+        <v>10</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E79" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F79" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G79" s="2">
+        <v>20</v>
+      </c>
+      <c r="H79" s="2">
+        <v>30</v>
+      </c>
+      <c r="I79" s="2">
+        <v>10</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E80" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G80" s="2">
+        <v>20</v>
+      </c>
+      <c r="H80" s="2">
+        <v>30</v>
+      </c>
+      <c r="I80" s="2">
+        <v>10</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E81" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F81" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G81" s="2">
+        <v>20</v>
+      </c>
+      <c r="H81" s="2">
+        <v>30</v>
+      </c>
+      <c r="I81" s="2">
+        <v>10</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4126</v>
+      </c>
+      <c r="E82" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F82" s="2">
+        <v>-4704</v>
+      </c>
+      <c r="G82" s="2">
+        <v>20</v>
+      </c>
+      <c r="H82" s="2">
+        <v>30</v>
+      </c>
+      <c r="I82" s="2">
+        <v>10</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E83" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F83" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G83" s="2">
+        <v>23</v>
+      </c>
+      <c r="H83" s="2">
+        <v>30</v>
+      </c>
+      <c r="I83" s="2">
+        <v>7</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E84" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F84" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G84" s="2">
+        <v>23</v>
+      </c>
+      <c r="H84" s="2">
+        <v>30</v>
+      </c>
+      <c r="I84" s="2">
+        <v>7</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E85" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F85" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G85" s="2">
+        <v>46</v>
+      </c>
+      <c r="H85" s="2">
+        <v>30</v>
+      </c>
+      <c r="I85" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E86" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F86" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G86" s="2">
+        <v>46</v>
+      </c>
+      <c r="H86" s="2">
+        <v>30</v>
+      </c>
+      <c r="I86" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E87" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F87" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G87" s="2">
+        <v>46</v>
+      </c>
+      <c r="H87" s="2">
+        <v>30</v>
+      </c>
+      <c r="I87" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E88" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F88" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G88" s="2">
+        <v>23</v>
+      </c>
+      <c r="H88" s="2">
+        <v>30</v>
+      </c>
+      <c r="I88" s="2">
+        <v>7</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E89" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F89" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G89" s="2">
+        <v>23</v>
+      </c>
+      <c r="H89" s="2">
+        <v>30</v>
+      </c>
+      <c r="I89" s="2">
+        <v>7</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E90" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F90" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G90" s="2">
+        <v>23</v>
+      </c>
+      <c r="H90" s="2">
+        <v>30</v>
+      </c>
+      <c r="I90" s="2">
+        <v>7</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E91" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F91" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G91" s="2">
+        <v>46</v>
+      </c>
+      <c r="H91" s="2">
+        <v>30</v>
+      </c>
+      <c r="I91" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E92" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F92" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G92" s="2">
+        <v>46</v>
+      </c>
+      <c r="H92" s="2">
+        <v>30</v>
+      </c>
+      <c r="I92" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E93" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F93" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G93" s="2">
+        <v>46</v>
+      </c>
+      <c r="H93" s="2">
+        <v>30</v>
+      </c>
+      <c r="I93" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E94" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F94" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G94" s="2">
+        <v>46</v>
+      </c>
+      <c r="H94" s="2">
+        <v>30</v>
+      </c>
+      <c r="I94" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E95" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F95" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G95" s="2">
+        <v>46</v>
+      </c>
+      <c r="H95" s="2">
+        <v>30</v>
+      </c>
+      <c r="I95" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E96" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F96" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G96" s="2">
+        <v>46</v>
+      </c>
+      <c r="H96" s="2">
+        <v>30</v>
+      </c>
+      <c r="I96" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="2">
+        <v>4365</v>
+      </c>
+      <c r="E97" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F97" s="2">
+        <v>-4465</v>
+      </c>
+      <c r="G97" s="2">
+        <v>30</v>
+      </c>
+      <c r="H97" s="2">
+        <v>30</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E98" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F98" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G98" s="2">
+        <v>23</v>
+      </c>
+      <c r="H98" s="2">
+        <v>30</v>
+      </c>
+      <c r="I98" s="2">
+        <v>7</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E99" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F99" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G99" s="2">
+        <v>23</v>
+      </c>
+      <c r="H99" s="2">
+        <v>30</v>
+      </c>
+      <c r="I99" s="2">
+        <v>7</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E100" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F100" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G100" s="2">
+        <v>23</v>
+      </c>
+      <c r="H100" s="2">
+        <v>30</v>
+      </c>
+      <c r="I100" s="2">
+        <v>7</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E101" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F101" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G101" s="2">
+        <v>23</v>
+      </c>
+      <c r="H101" s="2">
+        <v>30</v>
+      </c>
+      <c r="I101" s="2">
+        <v>7</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E102" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F102" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G102" s="2">
+        <v>23</v>
+      </c>
+      <c r="H102" s="2">
+        <v>30</v>
+      </c>
+      <c r="I102" s="2">
+        <v>7</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E103" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F103" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G103" s="2">
+        <v>23</v>
+      </c>
+      <c r="H103" s="2">
+        <v>30</v>
+      </c>
+      <c r="I103" s="2">
+        <v>7</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" s="2">
+        <v>5167</v>
+      </c>
+      <c r="E104" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F104" s="2">
+        <v>-3663</v>
+      </c>
+      <c r="G104" s="2">
+        <v>23</v>
+      </c>
+      <c r="H104" s="2">
+        <v>30</v>
+      </c>
+      <c r="I104" s="2">
+        <v>7</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D105" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E105" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F105" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G105" s="2">
+        <v>46</v>
+      </c>
+      <c r="H105" s="2">
+        <v>30</v>
+      </c>
+      <c r="I105" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="2">
+        <v>7501</v>
+      </c>
+      <c r="E106" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F106" s="2">
+        <v>-1329</v>
+      </c>
+      <c r="G106" s="2">
+        <v>46</v>
+      </c>
+      <c r="H106" s="2">
+        <v>30</v>
+      </c>
+      <c r="I106" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" s="2">
+        <v>7827</v>
+      </c>
+      <c r="E107" s="2">
+        <v>8830</v>
+      </c>
+      <c r="F107" s="2">
+        <v>-1003</v>
+      </c>
+      <c r="G107" s="2">
+        <v>46</v>
+      </c>
+      <c r="H107" s="2">
+        <v>30</v>
+      </c>
+      <c r="I107" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="2">
+        <v>7124</v>
+      </c>
+      <c r="E108" s="2">
+        <v>7513</v>
+      </c>
+      <c r="F108" s="2">
+        <v>-389</v>
+      </c>
+      <c r="G108" s="2">
+        <v>46</v>
+      </c>
+      <c r="H108" s="2">
+        <v>30</v>
+      </c>
+      <c r="I108" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="2">
+        <v>11803</v>
+      </c>
+      <c r="E109" s="2">
+        <v>9671</v>
+      </c>
+      <c r="F109" s="2">
+        <v>2132</v>
+      </c>
+      <c r="G109" s="2">
+        <v>46</v>
+      </c>
+      <c r="H109" s="2">
+        <v>30</v>
+      </c>
+      <c r="I109" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>15</v>
       </c>
     </row>
